--- a/test_data/package_2/MOCK_DATA.xlsx
+++ b/test_data/package_2/MOCK_DATA.xlsx
@@ -1019,9 +1019,9 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1040,21 +1040,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,9 +1279,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>16.03</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>15.53</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1715,7 +1719,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>9.2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>8.29</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>19.08</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>20.1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>21.89</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>30.74</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>18.74</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>18.33</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>19.74</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>9.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>34.93</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>84</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>32.16</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
@@ -2456,7 +2460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>91</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>92</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>9.47</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>101</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>106</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>110</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>111</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>112</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>115</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>117</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>119</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>120</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>121</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>2.45</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>127</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>19.17</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>130</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>132</v>
       </c>
@@ -2991,7 +2995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>134</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>135</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>136</v>
       </c>
@@ -3042,7 +3046,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>137</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>138</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>140</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>142</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>143</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>144</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>145</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>17.76</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>146</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>5.02</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>147</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>148</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>150</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
@@ -3252,7 +3256,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>152</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>17.69</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>153</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>155</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>156</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>157</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>159</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>17.06</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>160</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>18.54</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>164</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>166</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>167</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>169</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>170</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>171</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>172</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>173</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>32.55</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>174</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>176</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>177</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>179</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>181</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>183</v>
       </c>
@@ -3676,7 +3680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>185</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>186</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>188</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>9.79</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>189</v>
       </c>
@@ -3747,7 +3751,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>190</v>
       </c>
@@ -3767,7 +3771,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>192</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>194</v>
       </c>
@@ -3807,7 +3811,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>196</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>198</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>200</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>201</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>202</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>204</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>205</v>
       </c>
@@ -3932,7 +3936,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>206</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>207</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>208</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>210</v>
       </c>
@@ -4003,6 +4007,855 @@
         <v>21.32</v>
       </c>
     </row>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4016,16 +4869,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.75"/>
     <col customWidth="1" min="2" max="2" width="11.75"/>
     <col customWidth="1" min="3" max="3" width="11.88"/>
     <col customWidth="1" min="4" max="4" width="8.0"/>
     <col customWidth="1" min="5" max="5" width="75.0"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>211</v>
       </c>
@@ -4044,7 +4898,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>37588.0</v>
       </c>
@@ -4063,7 +4917,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>34064.0</v>
       </c>
@@ -4082,7 +4936,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>43255.0</v>
       </c>
@@ -4101,7 +4955,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>42655.0</v>
       </c>
@@ -4120,7 +4974,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>227</v>
@@ -4137,7 +4991,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>42510.0</v>
       </c>
@@ -4156,7 +5010,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>27529.0</v>
       </c>
@@ -4175,7 +5029,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>40467.0</v>
       </c>
@@ -4194,7 +5048,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>36134.0</v>
       </c>
@@ -4213,7 +5067,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>30367.0</v>
       </c>
@@ -4232,7 +5086,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>40393.0</v>
       </c>
@@ -4242,8 +5096,8 @@
       <c r="C12" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="4">
-        <v>7.6021</v>
+      <c r="D12" s="5">
+        <v>7.56021</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>246</v>
@@ -4251,7 +5105,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>42801.0</v>
       </c>
@@ -4270,7 +5124,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>249</v>
@@ -4287,7 +5141,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>41914.0</v>
       </c>
@@ -4306,7 +5160,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>254</v>
@@ -4323,7 +5177,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>29550.0</v>
       </c>
@@ -4342,7 +5196,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>34710.0</v>
       </c>
@@ -4352,8 +5206,8 @@
       <c r="C18" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="4">
-        <v>1.14404</v>
+      <c r="D18" s="5">
+        <v>1.14404566554636</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>261</v>
@@ -4361,7 +5215,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>30251.0</v>
       </c>
@@ -4380,7 +5234,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>27818.0</v>
       </c>
@@ -4390,8 +5244,8 @@
       <c r="C20" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="4">
-        <v>5.13802</v>
+      <c r="D20" s="5">
+        <v>51.13802</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>265</v>
@@ -4399,7 +5253,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>45582.0</v>
       </c>
@@ -4418,7 +5272,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>38152.0</v>
       </c>
@@ -4437,7 +5291,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>39867.0</v>
       </c>
@@ -4456,7 +5310,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <v>33461.0</v>
       </c>
@@ -4475,7 +5329,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <v>42890.0</v>
       </c>
@@ -4494,7 +5348,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <v>41009.0</v>
       </c>
@@ -4513,7 +5367,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <v>34689.0</v>
       </c>
@@ -4532,7 +5386,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <v>38502.0</v>
       </c>
@@ -4551,7 +5405,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <v>39039.0</v>
       </c>
@@ -4570,7 +5424,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>286</v>
@@ -4587,7 +5441,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <v>42301.0</v>
       </c>
@@ -4606,7 +5460,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>279</v>
@@ -4623,7 +5477,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>293</v>
@@ -4640,7 +5494,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43351.0</v>
       </c>
@@ -4659,7 +5513,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>298</v>
@@ -4676,7 +5530,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3">
         <v>39974.0</v>
       </c>
@@ -4695,7 +5549,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3">
         <v>44884.0</v>
       </c>
@@ -4714,7 +5568,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <v>44739.0</v>
       </c>
@@ -4733,7 +5587,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3">
         <v>31094.0</v>
       </c>
@@ -4752,7 +5606,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3">
         <v>27957.0</v>
       </c>
@@ -4771,7 +5625,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3">
         <v>28910.0</v>
       </c>
@@ -4790,7 +5644,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3">
         <v>28865.0</v>
       </c>
@@ -4809,7 +5663,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3">
         <v>36641.0</v>
       </c>
@@ -4828,7 +5682,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3">
         <v>31287.0</v>
       </c>
@@ -4847,7 +5701,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3">
         <v>30785.0</v>
       </c>
@@ -4866,7 +5720,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3">
         <v>33431.0</v>
       </c>
@@ -4885,7 +5739,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3">
         <v>36321.0</v>
       </c>
@@ -4904,7 +5758,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3">
         <v>36084.0</v>
       </c>
@@ -4923,7 +5777,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>325</v>
@@ -4940,7 +5794,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3">
         <v>31462.0</v>
       </c>
@@ -4959,6 +5813,956 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4972,763 +6776,1615 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>210</v>
       </c>
     </row>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
